--- a/PWL_POS/public/template_import/template_level.xlsx
+++ b/PWL_POS/public/template_import/template_level.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projek\laravel\web_lanjut\PWL_POS\public\template_import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238F75D7-2369-458A-A597-536CE56D0E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E06632-BAF6-45FA-9E57-5A90F08F1171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6525" yWindow="4320" windowWidth="21600" windowHeight="11430" xr2:uid="{34CD1490-9D8E-49F7-AB67-E98F4C1998BF}"/>
+    <workbookView xWindow="3855" yWindow="3855" windowWidth="21600" windowHeight="11430" xr2:uid="{34CD1490-9D8E-49F7-AB67-E98F4C1998BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>level_id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>level_kode</t>
   </si>
@@ -394,30 +391,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5E1D16-5E42-4D36-A89A-8983193B4935}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
